--- a/biology/Médecine/1752_en_santé_et_médecine/1752_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1752_en_santé_et_médecine/1752_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1752 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 mai : établissement à Nancy d’un Collège royal de médecine[1].
-27 juillet : le docteur Charles White ouvre avec l'industriel Joseph Bancroft le Manchester Royal Infirmary[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 mai : établissement à Nancy d’un Collège royal de médecine.
+27 juillet : le docteur Charles White ouvre avec l'industriel Joseph Bancroft le Manchester Royal Infirmary.
 Non précisé
-Douai reçoit ses lettres patentes pour l'ouverture d'un hôpital général[3].
-Claude Bourgelat, écuyer et vétérinaire français, est nommé membre correspondant de l'Académie des sciences de Paris[4].</t>
+Douai reçoit ses lettres patentes pour l'ouverture d'un hôpital général.
+Claude Bourgelat, écuyer et vétérinaire français, est nommé membre correspondant de l'Académie des sciences de Paris.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antoine Louis : Lettres sur la certitude des signes de la mort : où l'on rassure les citoyens de la crainte d'être enterrés vivans : avec des observations [et] des expériences sur les noyés[5]. Il démontre que la mort par noyade résulte de la pénétration de l'eau dans les bronches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antoine Louis : Lettres sur la certitude des signes de la mort : où l'on rassure les citoyens de la crainte d'être enterrés vivans : avec des observations [et] des expériences sur les noyés. Il démontre que la mort par noyade résulte de la pénétration de l'eau dans les bronches.
 John Pringle : Observations on the diseases of the army in camp and garrison. Il fonde la médecine militaire.</t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society :
-Médaille Copley : John Pringle[6].</t>
+Médaille Copley : John Pringle.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 mars : Johann David Schoepff (mort en 1800), zoologiste, botaniste et médecin allemand.
 9 mai : Antonio Scarpa (mort en 1832), anatomiste italien.
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1752_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1752_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +661,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>9 mars : Claude-Joseph Geoffroy (né en 1685), maître apothicaire, botaniste et chimiste français.
-10 avril : William Cheselden (né en 1688), chirurgien anglais[7].
+10 avril : William Cheselden (né en 1688), chirurgien anglais.
 13 avril : François Chicoyneau (né en 1672), médecin français.</t>
         </is>
       </c>
